--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.81590833333333</v>
+        <v>24.64729466666667</v>
       </c>
       <c r="N2">
-        <v>44.447725</v>
+        <v>73.941884</v>
       </c>
       <c r="O2">
-        <v>0.2626950900477981</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="P2">
-        <v>0.2626950900477981</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="Q2">
-        <v>1616.591236821322</v>
+        <v>4987.5620056977</v>
       </c>
       <c r="R2">
-        <v>14549.3211313919</v>
+        <v>44888.05805127929</v>
       </c>
       <c r="S2">
-        <v>0.07957215229770166</v>
+        <v>0.1703113095343453</v>
       </c>
       <c r="T2">
-        <v>0.07957215229770166</v>
+        <v>0.1703113095343453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.334947</v>
       </c>
       <c r="O3">
-        <v>0.6166407458941315</v>
+        <v>0.5261433069358374</v>
       </c>
       <c r="P3">
-        <v>0.6166407458941315</v>
+        <v>0.5261433069358376</v>
       </c>
       <c r="Q3">
-        <v>3794.726524572789</v>
+        <v>7037.648885490707</v>
       </c>
       <c r="R3">
-        <v>34152.53872115511</v>
+        <v>63338.83996941637</v>
       </c>
       <c r="S3">
-        <v>0.1867847295369253</v>
+        <v>0.2403160494769988</v>
       </c>
       <c r="T3">
-        <v>0.1867847295369253</v>
+        <v>0.2403160494769988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.805415333333333</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N4">
-        <v>20.416246</v>
+        <v>0.054589</v>
       </c>
       <c r="O4">
-        <v>0.1206641640580704</v>
+        <v>0.0002752829977698693</v>
       </c>
       <c r="P4">
-        <v>0.1206641640580704</v>
+        <v>0.0002752829977698693</v>
       </c>
       <c r="Q4">
-        <v>742.5514887969715</v>
+        <v>3.682162363201777</v>
       </c>
       <c r="R4">
-        <v>6682.963399172744</v>
+        <v>33.139461268816</v>
       </c>
       <c r="S4">
-        <v>0.03655000646398308</v>
+        <v>0.0001257355584308668</v>
       </c>
       <c r="T4">
-        <v>0.03655000646398308</v>
+        <v>0.0001257355584308668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>227.6338753333333</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>682.901626</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.6319374650831437</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.6319374650831437</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.81590833333333</v>
+        <v>6.632509</v>
       </c>
       <c r="N5">
-        <v>44.447725</v>
+        <v>19.897527</v>
       </c>
       <c r="O5">
-        <v>0.2626950900477981</v>
+        <v>0.1003398281845594</v>
       </c>
       <c r="P5">
-        <v>0.2626950900477981</v>
+        <v>0.1003398281845594</v>
       </c>
       <c r="Q5">
-        <v>3372.602630500094</v>
+        <v>1342.137152909765</v>
       </c>
       <c r="R5">
-        <v>30353.42367450085</v>
+        <v>12079.23437618789</v>
       </c>
       <c r="S5">
-        <v>0.1660068692945937</v>
+        <v>0.04583023445636024</v>
       </c>
       <c r="T5">
-        <v>0.1660068692945937</v>
+        <v>0.04583023445636025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>227.6338753333333</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>682.901626</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.6319374650831437</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.6319374650831437</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>34.77831566666666</v>
+        <v>0.02414633333333334</v>
       </c>
       <c r="N6">
-        <v>104.334947</v>
+        <v>0.072439</v>
       </c>
       <c r="O6">
-        <v>0.6166407458941315</v>
+        <v>0.000365297497214669</v>
       </c>
       <c r="P6">
-        <v>0.6166407458941315</v>
+        <v>0.000365297497214669</v>
       </c>
       <c r="Q6">
-        <v>7916.722772769313</v>
+        <v>4.886188782135112</v>
       </c>
       <c r="R6">
-        <v>71250.50495492382</v>
+        <v>43.975699039216</v>
       </c>
       <c r="S6">
-        <v>0.3896783898273165</v>
+        <v>0.0001668496971399652</v>
       </c>
       <c r="T6">
-        <v>0.3896783898273165</v>
+        <v>0.0001668496971399652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>682.901626</v>
       </c>
       <c r="I7">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J7">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.805415333333333</v>
+        <v>24.64729466666667</v>
       </c>
       <c r="N7">
-        <v>20.416246</v>
+        <v>73.941884</v>
       </c>
       <c r="O7">
-        <v>0.1206641640580704</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="P7">
-        <v>0.1206641640580704</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="Q7">
-        <v>1549.143065579555</v>
+        <v>5610.559201455932</v>
       </c>
       <c r="R7">
-        <v>13942.287590216</v>
+        <v>50495.03281310338</v>
       </c>
       <c r="S7">
-        <v>0.0762522059612336</v>
+        <v>0.19158492340112</v>
       </c>
       <c r="T7">
-        <v>0.0762522059612336</v>
+        <v>0.19158492340112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.194568</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>0.583704</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.0005401428435299865</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.0005401428435299865</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.81590833333333</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N8">
-        <v>44.447725</v>
+        <v>104.334947</v>
       </c>
       <c r="O8">
-        <v>0.2626950900477981</v>
+        <v>0.5261433069358374</v>
       </c>
       <c r="P8">
-        <v>0.2626950900477981</v>
+        <v>0.5261433069358376</v>
       </c>
       <c r="Q8">
-        <v>2.8827016526</v>
+        <v>7916.722772769313</v>
       </c>
       <c r="R8">
-        <v>25.9443148734</v>
+        <v>71250.50495492382</v>
       </c>
       <c r="S8">
-        <v>0.0001418928729197835</v>
+        <v>0.2703339669983917</v>
       </c>
       <c r="T8">
-        <v>0.0001418928729197835</v>
+        <v>0.2703339669983918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.194568</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>0.583704</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.0005401428435299865</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.0005401428435299865</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>34.77831566666666</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N9">
-        <v>104.334947</v>
+        <v>0.054589</v>
       </c>
       <c r="O9">
-        <v>0.6166407458941315</v>
+        <v>0.0002752829977698693</v>
       </c>
       <c r="P9">
-        <v>0.6166407458941315</v>
+        <v>0.0002752829977698693</v>
       </c>
       <c r="Q9">
-        <v>6.766747322631999</v>
+        <v>4.142101873523777</v>
       </c>
       <c r="R9">
-        <v>60.900725903688</v>
+        <v>37.27891686171399</v>
       </c>
       <c r="S9">
-        <v>0.0003330740859237081</v>
+        <v>0.0001414412078483656</v>
       </c>
       <c r="T9">
-        <v>0.0003330740859237081</v>
+        <v>0.0001414412078483656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.194568</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>0.583704</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.0005401428435299865</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.0005401428435299865</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.805415333333333</v>
+        <v>6.632509</v>
       </c>
       <c r="N10">
-        <v>20.416246</v>
+        <v>19.897527</v>
       </c>
       <c r="O10">
-        <v>0.1206641640580704</v>
+        <v>0.1003398281845594</v>
       </c>
       <c r="P10">
-        <v>0.1206641640580704</v>
+        <v>0.1003398281845594</v>
       </c>
       <c r="Q10">
-        <v>1.324116050576</v>
+        <v>1509.783726853211</v>
       </c>
       <c r="R10">
-        <v>11.917044455184</v>
+        <v>13588.0535416789</v>
       </c>
       <c r="S10">
-        <v>6.517588468649495E-05</v>
+        <v>0.05155489662890813</v>
       </c>
       <c r="T10">
-        <v>6.517588468649495E-05</v>
+        <v>0.05155489662890814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.05086833333333</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>66.15260499999999</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.06121571236725463</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.06121571236725463</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>14.81590833333333</v>
+        <v>0.02414633333333334</v>
       </c>
       <c r="N11">
-        <v>44.447725</v>
+        <v>0.072439</v>
       </c>
       <c r="O11">
-        <v>0.2626950900477981</v>
+        <v>0.000365297497214669</v>
       </c>
       <c r="P11">
-        <v>0.2626950900477981</v>
+        <v>0.000365297497214669</v>
       </c>
       <c r="Q11">
-        <v>326.7036438970694</v>
+        <v>5.496523431757112</v>
       </c>
       <c r="R11">
-        <v>2940.332795073625</v>
+        <v>49.468710885814</v>
       </c>
       <c r="S11">
-        <v>0.01608106707265606</v>
+        <v>0.0001876909204295326</v>
       </c>
       <c r="T11">
-        <v>0.01608106707265606</v>
+        <v>0.0001876909204295326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>22.05086833333333</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H12">
-        <v>66.15260499999999</v>
+        <v>0.527984</v>
       </c>
       <c r="I12">
-        <v>0.06121571236725463</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J12">
-        <v>0.06121571236725463</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.77831566666666</v>
+        <v>24.64729466666667</v>
       </c>
       <c r="N12">
-        <v>104.334947</v>
+        <v>73.941884</v>
       </c>
       <c r="O12">
-        <v>0.6166407458941315</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="P12">
-        <v>0.6166407458941315</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="Q12">
-        <v>766.8920596207704</v>
+        <v>4.337792409095111</v>
       </c>
       <c r="R12">
-        <v>6902.028536586934</v>
+        <v>39.040131681856</v>
       </c>
       <c r="S12">
-        <v>0.03774810253458451</v>
+        <v>0.000148123492968542</v>
       </c>
       <c r="T12">
-        <v>0.03774810253458451</v>
+        <v>0.000148123492968542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>22.05086833333333</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H13">
-        <v>66.15260499999999</v>
+        <v>0.527984</v>
       </c>
       <c r="I13">
-        <v>0.06121571236725463</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J13">
-        <v>0.06121571236725463</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.805415333333333</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N13">
-        <v>20.416246</v>
+        <v>104.334947</v>
       </c>
       <c r="O13">
-        <v>0.1206641640580704</v>
+        <v>0.5261433069358374</v>
       </c>
       <c r="P13">
-        <v>0.1206641640580704</v>
+        <v>0.5261433069358376</v>
       </c>
       <c r="Q13">
-        <v>150.0653174689811</v>
+        <v>6.120798072983111</v>
       </c>
       <c r="R13">
-        <v>1350.58785722083</v>
+        <v>55.087182656848</v>
       </c>
       <c r="S13">
-        <v>0.007386542760014062</v>
+        <v>0.000209008155490435</v>
       </c>
       <c r="T13">
-        <v>0.007386542760014062</v>
+        <v>0.000209008155490435</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.772957</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>2.318871</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.002145816331084288</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.002145816331084289</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>14.81590833333333</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N14">
-        <v>44.447725</v>
+        <v>0.054589</v>
       </c>
       <c r="O14">
-        <v>0.2626950900477981</v>
+        <v>0.0002752829977698693</v>
       </c>
       <c r="P14">
-        <v>0.2626950900477981</v>
+        <v>0.0002752829977698693</v>
       </c>
       <c r="Q14">
-        <v>11.45206005760833</v>
+        <v>0.003202457619555555</v>
       </c>
       <c r="R14">
-        <v>103.068540518475</v>
+        <v>0.028822118576</v>
       </c>
       <c r="S14">
-        <v>0.0005636954143202227</v>
+        <v>1.093549815103405E-07</v>
       </c>
       <c r="T14">
-        <v>0.0005636954143202228</v>
+        <v>1.093549815103405E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.772957</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>2.318871</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.002145816331084288</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.002145816331084289</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.77831566666666</v>
+        <v>6.632509</v>
       </c>
       <c r="N15">
-        <v>104.334947</v>
+        <v>19.897527</v>
       </c>
       <c r="O15">
-        <v>0.6166407458941315</v>
+        <v>0.1003398281845594</v>
       </c>
       <c r="P15">
-        <v>0.6166407458941315</v>
+        <v>0.1003398281845594</v>
       </c>
       <c r="Q15">
-        <v>26.88214254275967</v>
+        <v>1.167286210618667</v>
       </c>
       <c r="R15">
-        <v>241.939282884837</v>
+        <v>10.505575895568</v>
       </c>
       <c r="S15">
-        <v>0.001323197782951624</v>
+        <v>3.985956323044021E-05</v>
       </c>
       <c r="T15">
-        <v>0.001323197782951624</v>
+        <v>3.985956323044021E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.772957</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>2.318871</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.002145816331084288</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.002145816331084289</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>6.805415333333333</v>
+        <v>0.02414633333333334</v>
       </c>
       <c r="N16">
-        <v>20.416246</v>
+        <v>0.072439</v>
       </c>
       <c r="O16">
-        <v>0.1206641640580704</v>
+        <v>0.000365297497214669</v>
       </c>
       <c r="P16">
-        <v>0.1206641640580704</v>
+        <v>0.000365297497214669</v>
       </c>
       <c r="Q16">
-        <v>5.260293419807334</v>
+        <v>0.004249625886222222</v>
       </c>
       <c r="R16">
-        <v>47.342640778266</v>
+        <v>0.03824663297600001</v>
       </c>
       <c r="S16">
-        <v>0.0002589231338124413</v>
+        <v>1.45112852509252E-07</v>
       </c>
       <c r="T16">
-        <v>0.0002589231338124413</v>
+        <v>1.45112852509252E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4517016666666667</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H17">
-        <v>1.355105</v>
+        <v>36.22621</v>
       </c>
       <c r="I17">
-        <v>0.001253975076377243</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J17">
-        <v>0.001253975076377243</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.81590833333333</v>
+        <v>24.64729466666667</v>
       </c>
       <c r="N17">
-        <v>44.447725</v>
+        <v>73.941884</v>
       </c>
       <c r="O17">
-        <v>0.2626950900477981</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="P17">
-        <v>0.2626950900477981</v>
+        <v>0.3728762843846185</v>
       </c>
       <c r="Q17">
-        <v>6.692370487347222</v>
+        <v>297.6260241755156</v>
       </c>
       <c r="R17">
-        <v>60.231334386125</v>
+        <v>2678.63421757964</v>
       </c>
       <c r="S17">
-        <v>0.0003294130956066143</v>
+        <v>0.01016309729501638</v>
       </c>
       <c r="T17">
-        <v>0.0003294130956066143</v>
+        <v>0.01016309729501638</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4517016666666667</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H18">
-        <v>1.355105</v>
+        <v>36.22621</v>
       </c>
       <c r="I18">
-        <v>0.001253975076377243</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J18">
-        <v>0.001253975076377243</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,84 +1559,828 @@
         <v>104.334947</v>
       </c>
       <c r="O18">
-        <v>0.6166407458941315</v>
+        <v>0.5261433069358374</v>
       </c>
       <c r="P18">
-        <v>0.6166407458941315</v>
+        <v>0.5261433069358376</v>
       </c>
       <c r="Q18">
-        <v>15.70942315049278</v>
+        <v>419.9621889289855</v>
       </c>
       <c r="R18">
-        <v>141.384808354435</v>
+        <v>3779.65970036087</v>
       </c>
       <c r="S18">
-        <v>0.0007732521264299137</v>
+        <v>0.014340535570224</v>
       </c>
       <c r="T18">
-        <v>0.0007732521264299137</v>
+        <v>0.01434053557022401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.07540333333333</v>
+      </c>
+      <c r="H19">
+        <v>36.22621</v>
+      </c>
+      <c r="I19">
+        <v>0.02725594981667764</v>
+      </c>
+      <c r="J19">
+        <v>0.02725594981667764</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.054589</v>
+      </c>
+      <c r="O19">
+        <v>0.0002752829977698693</v>
+      </c>
+      <c r="P19">
+        <v>0.0002752829977698693</v>
+      </c>
+      <c r="Q19">
+        <v>0.2197280641877778</v>
+      </c>
+      <c r="R19">
+        <v>1.97755257769</v>
+      </c>
+      <c r="S19">
+        <v>7.503099572600139E-06</v>
+      </c>
+      <c r="T19">
+        <v>7.503099572600141E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>12.07540333333333</v>
+      </c>
+      <c r="H20">
+        <v>36.22621</v>
+      </c>
+      <c r="I20">
+        <v>0.02725594981667764</v>
+      </c>
+      <c r="J20">
+        <v>0.02725594981667764</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.632509</v>
+      </c>
+      <c r="N20">
+        <v>19.897527</v>
+      </c>
+      <c r="O20">
+        <v>0.1003398281845594</v>
+      </c>
+      <c r="P20">
+        <v>0.1003398281845594</v>
+      </c>
+      <c r="Q20">
+        <v>80.09022128696333</v>
+      </c>
+      <c r="R20">
+        <v>720.8119915826701</v>
+      </c>
+      <c r="S20">
+        <v>0.002734857321612408</v>
+      </c>
+      <c r="T20">
+        <v>0.002734857321612408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.07540333333333</v>
+      </c>
+      <c r="H21">
+        <v>36.22621</v>
+      </c>
+      <c r="I21">
+        <v>0.02725594981667764</v>
+      </c>
+      <c r="J21">
+        <v>0.02725594981667764</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02414633333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.072439</v>
+      </c>
+      <c r="O21">
+        <v>0.000365297497214669</v>
+      </c>
+      <c r="P21">
+        <v>0.000365297497214669</v>
+      </c>
+      <c r="Q21">
+        <v>0.2915767140211111</v>
+      </c>
+      <c r="R21">
+        <v>2.62419042619</v>
+      </c>
+      <c r="S21">
+        <v>9.956530252240956E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.956530252240958E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7692486666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.307746</v>
+      </c>
+      <c r="I22">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="J22">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.64729466666667</v>
+      </c>
+      <c r="N22">
+        <v>73.941884</v>
+      </c>
+      <c r="O22">
+        <v>0.3728762843846185</v>
+      </c>
+      <c r="P22">
+        <v>0.3728762843846185</v>
+      </c>
+      <c r="Q22">
+        <v>18.95989855927377</v>
+      </c>
+      <c r="R22">
+        <v>170.639087033464</v>
+      </c>
+      <c r="S22">
+        <v>0.0006474275705403592</v>
+      </c>
+      <c r="T22">
+        <v>0.0006474275705403592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7692486666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.307746</v>
+      </c>
+      <c r="I23">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="J23">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>34.77831566666666</v>
+      </c>
+      <c r="N23">
+        <v>104.334947</v>
+      </c>
+      <c r="O23">
+        <v>0.5261433069358374</v>
+      </c>
+      <c r="P23">
+        <v>0.5261433069358376</v>
+      </c>
+      <c r="Q23">
+        <v>26.75317295549577</v>
+      </c>
+      <c r="R23">
+        <v>240.778556599462</v>
+      </c>
+      <c r="S23">
+        <v>0.000913546120337793</v>
+      </c>
+      <c r="T23">
+        <v>0.0009135461203377932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7692486666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.307746</v>
+      </c>
+      <c r="I24">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="J24">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.054589</v>
+      </c>
+      <c r="O24">
+        <v>0.0002752829977698693</v>
+      </c>
+      <c r="P24">
+        <v>0.0002752829977698693</v>
+      </c>
+      <c r="Q24">
+        <v>0.01399750515488889</v>
+      </c>
+      <c r="R24">
+        <v>0.125977546394</v>
+      </c>
+      <c r="S24">
+        <v>4.779756984313202E-07</v>
+      </c>
+      <c r="T24">
+        <v>4.779756984313204E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.4517016666666667</v>
-      </c>
-      <c r="H19">
-        <v>1.355105</v>
-      </c>
-      <c r="I19">
-        <v>0.001253975076377243</v>
-      </c>
-      <c r="J19">
-        <v>0.001253975076377243</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.805415333333333</v>
-      </c>
-      <c r="N19">
-        <v>20.416246</v>
-      </c>
-      <c r="O19">
-        <v>0.1206641640580704</v>
-      </c>
-      <c r="P19">
-        <v>0.1206641640580704</v>
-      </c>
-      <c r="Q19">
-        <v>3.074017448425556</v>
-      </c>
-      <c r="R19">
-        <v>27.66615703583</v>
-      </c>
-      <c r="S19">
-        <v>0.000151309854340715</v>
-      </c>
-      <c r="T19">
-        <v>0.000151309854340715</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7692486666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.307746</v>
+      </c>
+      <c r="I25">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="J25">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.632509</v>
+      </c>
+      <c r="N25">
+        <v>19.897527</v>
+      </c>
+      <c r="O25">
+        <v>0.1003398281845594</v>
+      </c>
+      <c r="P25">
+        <v>0.1003398281845594</v>
+      </c>
+      <c r="Q25">
+        <v>5.102048704904666</v>
+      </c>
+      <c r="R25">
+        <v>45.918438344142</v>
+      </c>
+      <c r="S25">
+        <v>0.0001742207104889456</v>
+      </c>
+      <c r="T25">
+        <v>0.0001742207104889456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7692486666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.307746</v>
+      </c>
+      <c r="I26">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="J26">
+        <v>0.001736306645537542</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02414633333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.072439</v>
+      </c>
+      <c r="O26">
+        <v>0.000365297497214669</v>
+      </c>
+      <c r="P26">
+        <v>0.000365297497214669</v>
+      </c>
+      <c r="Q26">
+        <v>0.01857453472155556</v>
+      </c>
+      <c r="R26">
+        <v>0.167170812494</v>
+      </c>
+      <c r="S26">
+        <v>6.342684720120613E-07</v>
+      </c>
+      <c r="T26">
+        <v>6.342684720120614E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.02543033333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.076291</v>
+      </c>
+      <c r="I27">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="J27">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.64729466666667</v>
+      </c>
+      <c r="N27">
+        <v>73.941884</v>
+      </c>
+      <c r="O27">
+        <v>0.3728762843846185</v>
+      </c>
+      <c r="P27">
+        <v>0.3728762843846185</v>
+      </c>
+      <c r="Q27">
+        <v>0.6267889191382222</v>
+      </c>
+      <c r="R27">
+        <v>5.641100272244</v>
+      </c>
+      <c r="S27">
+        <v>2.14030906278657E-05</v>
+      </c>
+      <c r="T27">
+        <v>2.14030906278657E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.02543033333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.076291</v>
+      </c>
+      <c r="I28">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="J28">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>34.77831566666666</v>
+      </c>
+      <c r="N28">
+        <v>104.334947</v>
+      </c>
+      <c r="O28">
+        <v>0.5261433069358374</v>
+      </c>
+      <c r="P28">
+        <v>0.5261433069358376</v>
+      </c>
+      <c r="Q28">
+        <v>0.8844241601752222</v>
+      </c>
+      <c r="R28">
+        <v>7.959817441577</v>
+      </c>
+      <c r="S28">
+        <v>3.020061439460433E-05</v>
+      </c>
+      <c r="T28">
+        <v>3.020061439460434E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.02543033333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.076291</v>
+      </c>
+      <c r="I29">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="J29">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.054589</v>
+      </c>
+      <c r="O29">
+        <v>0.0002752829977698693</v>
+      </c>
+      <c r="P29">
+        <v>0.0002752829977698693</v>
+      </c>
+      <c r="Q29">
+        <v>0.000462738822111111</v>
+      </c>
+      <c r="R29">
+        <v>0.004164649399</v>
+      </c>
+      <c r="S29">
+        <v>1.580123809510399E-08</v>
+      </c>
+      <c r="T29">
+        <v>1.5801238095104E-08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.02543033333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.076291</v>
+      </c>
+      <c r="I30">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="J30">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.632509</v>
+      </c>
+      <c r="N30">
+        <v>19.897527</v>
+      </c>
+      <c r="O30">
+        <v>0.1003398281845594</v>
+      </c>
+      <c r="P30">
+        <v>0.1003398281845594</v>
+      </c>
+      <c r="Q30">
+        <v>0.1686669147063333</v>
+      </c>
+      <c r="R30">
+        <v>1.518002232357</v>
+      </c>
+      <c r="S30">
+        <v>5.759503959236481E-06</v>
+      </c>
+      <c r="T30">
+        <v>5.759503959236482E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.02543033333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.076291</v>
+      </c>
+      <c r="I31">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="J31">
+        <v>5.739997828821048E-05</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.02414633333333334</v>
+      </c>
+      <c r="N31">
+        <v>0.072439</v>
+      </c>
+      <c r="O31">
+        <v>0.000365297497214669</v>
+      </c>
+      <c r="P31">
+        <v>0.000365297497214669</v>
+      </c>
+      <c r="Q31">
+        <v>0.0006140493054444445</v>
+      </c>
+      <c r="R31">
+        <v>0.005526443749</v>
+      </c>
+      <c r="S31">
+        <v>2.096806840885963E-08</v>
+      </c>
+      <c r="T31">
+        <v>2.096806840885963E-08</v>
       </c>
     </row>
   </sheetData>
